--- a/data/trans_orig/P1419-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>34011</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23938</v>
+        <v>23776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47721</v>
+        <v>48001</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05822314612165563</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04097971457421351</v>
+        <v>0.04070219380723571</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08169476748160032</v>
+        <v>0.08217294887034848</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -765,19 +765,19 @@
         <v>122035</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101559</v>
+        <v>102207</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143630</v>
+        <v>145553</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1323110415191643</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1101107712409296</v>
+        <v>0.1108137973204332</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1557243154098971</v>
+        <v>0.1578097462495736</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -786,19 +786,19 @@
         <v>156045</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133971</v>
+        <v>134014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>180340</v>
+        <v>181422</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1035831697173746</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08892987168371519</v>
+        <v>0.08895858817597638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1197100049624573</v>
+        <v>0.12042835295427</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>550130</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>536420</v>
+        <v>536140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>560203</v>
+        <v>560365</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9417768538783443</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9183052325183998</v>
+        <v>0.9178270511296517</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9590202854257867</v>
+        <v>0.9592978061927644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>765</v>
@@ -836,19 +836,19 @@
         <v>800298</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>778703</v>
+        <v>776780</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>820774</v>
+        <v>820126</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8676889584808357</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8442756845901028</v>
+        <v>0.8421902537504263</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8898892287590703</v>
+        <v>0.8891862026795668</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1305</v>
@@ -857,19 +857,19 @@
         <v>1350429</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1326134</v>
+        <v>1325052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1372503</v>
+        <v>1372460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8964168302826254</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8802899950375427</v>
+        <v>0.87957164704573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9110701283162848</v>
+        <v>0.9110414118240237</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>26886</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17838</v>
+        <v>18044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39087</v>
+        <v>38193</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02494330705259673</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01654847553101479</v>
+        <v>0.01674016714161115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03626242445365887</v>
+        <v>0.03543321342970628</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -982,19 +982,19 @@
         <v>115154</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96148</v>
+        <v>96521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136963</v>
+        <v>137708</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1088884417454478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09091707325084046</v>
+        <v>0.09126939687539656</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1295107352538121</v>
+        <v>0.1302160624982479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -1003,19 +1003,19 @@
         <v>142040</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>119190</v>
+        <v>121135</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164958</v>
+        <v>168192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06651577043795497</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05581541828816658</v>
+        <v>0.05672632787494961</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07724789039220642</v>
+        <v>0.07876237492569982</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1051008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1038807</v>
+        <v>1039701</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1060056</v>
+        <v>1059850</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9750566929474033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9637375755463412</v>
+        <v>0.9645667865702929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9834515244689852</v>
+        <v>0.9832598328583884</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>917</v>
@@ -1053,19 +1053,19 @@
         <v>942384</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>920575</v>
+        <v>919830</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>961390</v>
+        <v>961017</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8911115582545522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8704892647461879</v>
+        <v>0.8697839375017523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9090829267491596</v>
+        <v>0.9087306031246034</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1945</v>
@@ -1074,19 +1074,19 @@
         <v>1993392</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1970474</v>
+        <v>1967240</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2016242</v>
+        <v>2014297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.933484229562045</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9227521096077935</v>
+        <v>0.9212376250743001</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9441845817118333</v>
+        <v>0.9432736721250504</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>24667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16398</v>
+        <v>15706</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35978</v>
+        <v>37103</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02199251619423576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0146201315411621</v>
+        <v>0.01400287707666359</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03207789701456016</v>
+        <v>0.03308062428059994</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -1199,19 +1199,19 @@
         <v>74491</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59211</v>
+        <v>59080</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91760</v>
+        <v>91452</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07494494667023964</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05957160455913485</v>
+        <v>0.05944015163612881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09231902710653876</v>
+        <v>0.09200952166611284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -1220,19 +1220,19 @@
         <v>99157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81021</v>
+        <v>80956</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>119813</v>
+        <v>120210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04687111459648778</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03829827959738875</v>
+        <v>0.03826719092371379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05663468000406237</v>
+        <v>0.05682252699535251</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1096927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1085616</v>
+        <v>1084491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1105196</v>
+        <v>1105888</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9780074838057642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9679221029854398</v>
+        <v>0.9669193757194001</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9853798684588377</v>
+        <v>0.9859971229233364</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>909</v>
@@ -1270,19 +1270,19 @@
         <v>919449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>902180</v>
+        <v>902488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>934729</v>
+        <v>934860</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9250550533297603</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9076809728934613</v>
+        <v>0.9079904783338872</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9404283954408653</v>
+        <v>0.9405598483638712</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1989</v>
@@ -1291,19 +1291,19 @@
         <v>2016377</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1995721</v>
+        <v>1995324</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2034513</v>
+        <v>2034578</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9531288854035123</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9433653199959376</v>
+        <v>0.9431774730046474</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9617017204026113</v>
+        <v>0.9617328090762861</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11767</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6085</v>
+        <v>6483</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20297</v>
+        <v>21142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02631351393148212</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01360783357733899</v>
+        <v>0.01449761824613324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0453861107646512</v>
+        <v>0.04727651911428666</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1416,19 +1416,19 @@
         <v>43380</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31569</v>
+        <v>31981</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56866</v>
+        <v>58172</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1271561766871646</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09253552826817976</v>
+        <v>0.09374162779017597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1666846045669599</v>
+        <v>0.1705128934269398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -1437,19 +1437,19 @@
         <v>55148</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42001</v>
+        <v>42519</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71574</v>
+        <v>70321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06995270443094802</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05327615065303446</v>
+        <v>0.05393411101132518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0907889377235656</v>
+        <v>0.08919894291863806</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>435433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>426903</v>
+        <v>426058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441115</v>
+        <v>440717</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9736864860685179</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9546138892353485</v>
+        <v>0.9527234808857131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9863921664226609</v>
+        <v>0.9855023817538667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>298</v>
@@ -1487,19 +1487,19 @@
         <v>297778</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>284292</v>
+        <v>282986</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>309589</v>
+        <v>309177</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8728438233128354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.83331539543304</v>
+        <v>0.8294871065730602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9074644717318198</v>
+        <v>0.9062583722098241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>723</v>
@@ -1508,19 +1508,19 @@
         <v>733210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>716784</v>
+        <v>718037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>746357</v>
+        <v>745839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.930047295569052</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9092110622764347</v>
+        <v>0.9108010570813615</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9467238493469656</v>
+        <v>0.9460658889886745</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>97331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80558</v>
+        <v>79165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118414</v>
+        <v>118897</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03012565989762534</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02493401919583968</v>
+        <v>0.02450307739014372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03665120790523202</v>
+        <v>0.03680063960932702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>345</v>
@@ -1633,19 +1633,19 @@
         <v>355060</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>320216</v>
+        <v>321581</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>394783</v>
+        <v>391156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1071079837060821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09659698633894971</v>
+        <v>0.09700889913783611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.119090987319039</v>
+        <v>0.1179968359611852</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>440</v>
@@ -1654,19 +1654,19 @@
         <v>452390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>411252</v>
+        <v>406636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>494148</v>
+        <v>491042</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06911158623533824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06282686188133579</v>
+        <v>0.06212168282358149</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07549089671607269</v>
+        <v>0.07501634767714653</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3133498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3112415</v>
+        <v>3111932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3150271</v>
+        <v>3151664</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9698743401023746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9633487920947683</v>
+        <v>0.9631993603906731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9750659808041605</v>
+        <v>0.9754969226098563</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2889</v>
@@ -1704,19 +1704,19 @@
         <v>2959909</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2920186</v>
+        <v>2923813</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2994753</v>
+        <v>2993388</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8928920162939179</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.880909012680961</v>
+        <v>0.8820031640388151</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9034030136610502</v>
+        <v>0.9029911008621645</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5962</v>
@@ -1725,19 +1725,19 @@
         <v>6093408</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6051650</v>
+        <v>6054756</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6134546</v>
+        <v>6139162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9308884137646618</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9245091032839274</v>
+        <v>0.9249836523228536</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9371731381186642</v>
+        <v>0.9378783171764186</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>14557</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8114</v>
+        <v>7281</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26757</v>
+        <v>26755</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01394423860315876</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007772358933920021</v>
+        <v>0.006974397457068982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02563082832145355</v>
+        <v>0.02562851932162609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -2090,19 +2090,19 @@
         <v>106401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88235</v>
+        <v>87249</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127989</v>
+        <v>128944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09511566546669892</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07887635045503705</v>
+        <v>0.07799449994319028</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1144133016317835</v>
+        <v>0.1152671390162203</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -2111,19 +2111,19 @@
         <v>120958</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99859</v>
+        <v>99982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144597</v>
+        <v>141691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05593220256910923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04617550616284827</v>
+        <v>0.04623236969930297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06686275104964989</v>
+        <v>0.06551911890233846</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1029378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1017178</v>
+        <v>1017180</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1035821</v>
+        <v>1036654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9860557613968413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9743691716785463</v>
+        <v>0.9743714806783736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.99222764106608</v>
+        <v>0.993025602542931</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>931</v>
@@ -2161,19 +2161,19 @@
         <v>1012252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>990664</v>
+        <v>989709</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1030418</v>
+        <v>1031404</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9048843345333011</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8855866983682165</v>
+        <v>0.8847328609837797</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9211236495449631</v>
+        <v>0.9220055000568098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1898</v>
@@ -2182,19 +2182,19 @@
         <v>2041630</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2017991</v>
+        <v>2020897</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2062729</v>
+        <v>2062606</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9440677974308908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.93313724895035</v>
+        <v>0.9344808810976613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9538244938371515</v>
+        <v>0.9537676303006969</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>12474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6486</v>
+        <v>6955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20301</v>
+        <v>21920</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01276652410276352</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006638214941544907</v>
+        <v>0.007118196471639215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02077754368811161</v>
+        <v>0.02243484434327942</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -2307,19 +2307,19 @@
         <v>99701</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82030</v>
+        <v>81391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121233</v>
+        <v>121614</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09127352492193622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0750967424158217</v>
+        <v>0.07451189399016071</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1109855764788066</v>
+        <v>0.1113346212570257</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -2328,19 +2328,19 @@
         <v>112174</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94571</v>
+        <v>91188</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134136</v>
+        <v>132853</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05420622748552188</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04569987538229692</v>
+        <v>0.04406470990215139</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06481901451275479</v>
+        <v>0.06419897930008826</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>964599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>956772</v>
+        <v>955153</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>970587</v>
+        <v>970118</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9872334758972365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9792224563118886</v>
+        <v>0.9775651556567214</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9933617850584552</v>
+        <v>0.9928818035283608</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>924</v>
@@ -2378,19 +2378,19 @@
         <v>992626</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>971094</v>
+        <v>970713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1010297</v>
+        <v>1010936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9087264750780638</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8890144235211933</v>
+        <v>0.8886653787429742</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9249032575841782</v>
+        <v>0.9254881060098393</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1836</v>
@@ -2399,19 +2399,19 @@
         <v>1957226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1935264</v>
+        <v>1936547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1974829</v>
+        <v>1978212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9457937725144782</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9351809854872453</v>
+        <v>0.9358010206999118</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9543001246177031</v>
+        <v>0.9559352900978486</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>7412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3014</v>
+        <v>3125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14522</v>
+        <v>15970</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008373575472821637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003405660076671731</v>
+        <v>0.003531076351975983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0164069794643087</v>
+        <v>0.01804244633736329</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -2524,19 +2524,19 @@
         <v>57146</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42602</v>
+        <v>43366</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72242</v>
+        <v>73108</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06525031729435396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04864331078188379</v>
+        <v>0.04951641772269473</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08248670976052552</v>
+        <v>0.08347587165147481</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -2545,19 +2545,19 @@
         <v>64558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50366</v>
+        <v>51093</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82495</v>
+        <v>82921</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03666144106638151</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02860218462925948</v>
+        <v>0.02901497037105441</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04684806218853869</v>
+        <v>0.04708980362158142</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>877703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>870593</v>
+        <v>869145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>882101</v>
+        <v>881990</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9916264245271783</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9835930205356913</v>
+        <v>0.9819575536626364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965943399233282</v>
+        <v>0.996468923648024</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>768</v>
@@ -2595,19 +2595,19 @@
         <v>818650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>803554</v>
+        <v>802688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>833194</v>
+        <v>832430</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9347496827056461</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9175132902394745</v>
+        <v>0.9165241283485251</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9513566892181161</v>
+        <v>0.9504835822773052</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1591</v>
@@ -2616,19 +2616,19 @@
         <v>1696353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1678416</v>
+        <v>1677990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1710545</v>
+        <v>1709818</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9633385589336185</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9531519378114608</v>
+        <v>0.9529101963784186</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.97139781537074</v>
+        <v>0.9709850296289455</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>5323</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11922</v>
+        <v>11742</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01058213624329249</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004098216362376122</v>
+        <v>0.004120039581122475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02370100731010412</v>
+        <v>0.02334357899137992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -2741,19 +2741,19 @@
         <v>34272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22321</v>
+        <v>22756</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47104</v>
+        <v>49529</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07569923316202734</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04930253489364239</v>
+        <v>0.05026354882247192</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1040426501542146</v>
+        <v>0.1093984404653053</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -2762,19 +2762,19 @@
         <v>39595</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29033</v>
+        <v>27000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56826</v>
+        <v>53171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04142762151746974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03037716084611529</v>
+        <v>0.02824945473814109</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05945621103343244</v>
+        <v>0.0556320526569727</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>497700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491101</v>
+        <v>491281</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500962</v>
+        <v>500951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9894178637567075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.976298992689896</v>
+        <v>0.9766564210086202</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9959017836376238</v>
+        <v>0.9958799604188775</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>383</v>
@@ -2812,19 +2812,19 @@
         <v>418464</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>405632</v>
+        <v>403207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>430415</v>
+        <v>429980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9243007668379727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8959573498457856</v>
+        <v>0.8906015595346944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9506974651063577</v>
+        <v>0.949736451177528</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>839</v>
@@ -2833,19 +2833,19 @@
         <v>916163</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>898932</v>
+        <v>902587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>926725</v>
+        <v>928758</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9585723784825303</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9405437889665675</v>
+        <v>0.9443679473430272</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9696228391538847</v>
+        <v>0.9717505452618589</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>39765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28272</v>
+        <v>27298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55657</v>
+        <v>56403</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01166431102633144</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008293095972938707</v>
+        <v>0.00800714402624517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01632577537598038</v>
+        <v>0.01654470000991728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -2958,19 +2958,19 @@
         <v>297520</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>267625</v>
+        <v>265614</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>335147</v>
+        <v>332799</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08405670112889027</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07561074669363162</v>
+        <v>0.07504244138845169</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09468739237939743</v>
+        <v>0.09402393041868143</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>311</v>
@@ -2979,19 +2979,19 @@
         <v>337285</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>302837</v>
+        <v>301058</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>373569</v>
+        <v>377244</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04853959410239111</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04358212918828771</v>
+        <v>0.04332611762886757</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05376138105121425</v>
+        <v>0.05429023347103144</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3369380</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3353488</v>
+        <v>3352742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3380873</v>
+        <v>3381847</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9883356889736685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9836742246240195</v>
+        <v>0.9834552999900827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9917069040270613</v>
+        <v>0.9919928559737549</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3006</v>
@@ -3029,19 +3029,19 @@
         <v>3241991</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3204364</v>
+        <v>3206712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3271886</v>
+        <v>3273897</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9159432988711097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9053126076206025</v>
+        <v>0.9059760695813186</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9243892533063683</v>
+        <v>0.9249575586115484</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6164</v>
@@ -3050,19 +3050,19 @@
         <v>6611372</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6575088</v>
+        <v>6571413</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6645820</v>
+        <v>6647599</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9514604058976089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9462386189487857</v>
+        <v>0.9457097665289688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9564178708117123</v>
+        <v>0.9566738823711326</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>21313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13376</v>
+        <v>14094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31119</v>
+        <v>32217</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01889422699146932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01185858288943767</v>
+        <v>0.01249472805557117</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0275874750688969</v>
+        <v>0.02856130320740419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -3415,19 +3415,19 @@
         <v>94784</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75970</v>
+        <v>77074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116236</v>
+        <v>117461</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07525148954327243</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0603145668447653</v>
+        <v>0.06119102448907857</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09228310523018586</v>
+        <v>0.09325515059327878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>103</v>
@@ -3436,19 +3436,19 @@
         <v>116096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95071</v>
+        <v>94609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140216</v>
+        <v>138493</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04862560818014852</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03981945399882179</v>
+        <v>0.03962564033594139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05872794121061503</v>
+        <v>0.05800596281790461</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1106684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1096878</v>
+        <v>1095780</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1114621</v>
+        <v>1113903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9811057730085306</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9724125249311031</v>
+        <v>0.971438696792596</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9881414171105624</v>
+        <v>0.9875052719444288</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1106</v>
@@ -3486,19 +3486,19 @@
         <v>1164777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1143325</v>
+        <v>1142100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1183591</v>
+        <v>1182487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9247485104567276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9077168947698142</v>
+        <v>0.9067448494067212</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9396854331552347</v>
+        <v>0.9388089755109215</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2151</v>
@@ -3507,19 +3507,19 @@
         <v>2271462</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2247342</v>
+        <v>2249065</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2292487</v>
+        <v>2292949</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9513743918198515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9412720587893849</v>
+        <v>0.9419940371820953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9601805460011781</v>
+        <v>0.9603743596640585</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>20223</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12266</v>
+        <v>12561</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30268</v>
+        <v>31459</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02225188596691033</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01349623142844397</v>
+        <v>0.01382131848869898</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03330476925972622</v>
+        <v>0.03461517269546151</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -3632,19 +3632,19 @@
         <v>69720</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53927</v>
+        <v>53267</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87638</v>
+        <v>88235</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06927126270215213</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0535797667616152</v>
+        <v>0.05292472522399618</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08707452582764964</v>
+        <v>0.08766692289087043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -3653,19 +3653,19 @@
         <v>89943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73217</v>
+        <v>72945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111880</v>
+        <v>110748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0469602028265912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03822752114733075</v>
+        <v>0.03808547623279968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0584137940799541</v>
+        <v>0.05782294663110633</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>888602</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>878557</v>
+        <v>877366</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>896559</v>
+        <v>896264</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9777481140330897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9666952307402737</v>
+        <v>0.9653848273045386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9865037685715561</v>
+        <v>0.9861786815113011</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>890</v>
@@ -3703,19 +3703,19 @@
         <v>936755</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>918837</v>
+        <v>918240</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>952548</v>
+        <v>953208</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9307287372978479</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9129254741723505</v>
+        <v>0.9123330771091297</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9464202332383849</v>
+        <v>0.9470752747760038</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1751</v>
@@ -3724,19 +3724,19 @@
         <v>1825357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1803420</v>
+        <v>1804552</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1842083</v>
+        <v>1842355</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9530397971734088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9415862059200459</v>
+        <v>0.9421770533688939</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9617724788526694</v>
+        <v>0.9619145237672007</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>6480</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2262</v>
+        <v>2518</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14082</v>
+        <v>13027</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007865807669702997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002745588549504554</v>
+        <v>0.003057185740654173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01709429726422257</v>
+        <v>0.01581463730521266</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3849,19 +3849,19 @@
         <v>34758</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22661</v>
+        <v>23236</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48082</v>
+        <v>49423</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04507878904132889</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02938888262614258</v>
+        <v>0.03013462283735986</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06235875018660675</v>
+        <v>0.0640971494530987</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -3870,19 +3870,19 @@
         <v>41238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28624</v>
+        <v>29724</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55503</v>
+        <v>56754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0258574487809902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01794837103268454</v>
+        <v>0.01863783398755966</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03480191531362006</v>
+        <v>0.03558645494904131</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>817279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>809677</v>
+        <v>810732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>821497</v>
+        <v>821241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.992134192330297</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9829057027357774</v>
+        <v>0.9841853626947873</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972544114504941</v>
+        <v>0.9969428142593458</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>699</v>
@@ -3920,19 +3920,19 @@
         <v>736301</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>722977</v>
+        <v>721636</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>748398</v>
+        <v>747823</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9549212109586711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9376412498133933</v>
+        <v>0.9359028505469013</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9706111173738574</v>
+        <v>0.9698653771626399</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1480</v>
@@ -3941,19 +3941,19 @@
         <v>1553580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1539315</v>
+        <v>1538064</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1566194</v>
+        <v>1565094</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9741425512190098</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9651980846863799</v>
+        <v>0.9644135450509578</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9820516289673155</v>
+        <v>0.9813621660124402</v>
       </c>
     </row>
     <row r="12">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11580</v>
+        <v>10684</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00649402696426685</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02285463988572439</v>
+        <v>0.0210855217114025</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -4066,19 +4066,19 @@
         <v>16248</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8605</v>
+        <v>8861</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27229</v>
+        <v>27278</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03318019130910255</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01757140440984505</v>
+        <v>0.01809543533723436</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05560407630987187</v>
+        <v>0.05570414579710796</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -4087,19 +4087,19 @@
         <v>19539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10938</v>
+        <v>11032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33097</v>
+        <v>32650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01960941198646014</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01097708658790018</v>
+        <v>0.0110722477187531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03321675804691769</v>
+        <v>0.03276784767209805</v>
       </c>
     </row>
     <row r="14">
@@ -4116,7 +4116,7 @@
         <v>503410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495121</v>
+        <v>496017</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -4125,7 +4125,7 @@
         <v>0.9935059730357332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9771453601142753</v>
+        <v>0.9789144782885976</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4137,19 +4137,19 @@
         <v>473450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>462469</v>
+        <v>462420</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>481093</v>
+        <v>480837</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9668198086908975</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9443959236901287</v>
+        <v>0.9442958542028916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9824285955901551</v>
+        <v>0.9819045646627652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>911</v>
@@ -4158,19 +4158,19 @@
         <v>976859</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>963301</v>
+        <v>963748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>985460</v>
+        <v>985366</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9803905880135398</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9667832419530822</v>
+        <v>0.9672321523279018</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9890229134120998</v>
+        <v>0.9889277522812461</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>51306</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39382</v>
+        <v>38793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67151</v>
+        <v>66343</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01523654952777482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01169538758811755</v>
+        <v>0.01152068701241499</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01994221187681016</v>
+        <v>0.01970235349856506</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>185</v>
@@ -4283,19 +4283,19 @@
         <v>215510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184257</v>
+        <v>188639</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248109</v>
+        <v>249344</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06110660031845935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05224493562498061</v>
+        <v>0.05348749115809624</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07034986940777509</v>
+        <v>0.07069987356858951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>234</v>
@@ -4304,19 +4304,19 @@
         <v>266816</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>233664</v>
+        <v>231954</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>303764</v>
+        <v>301333</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03870222892871157</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03389338557972882</v>
+        <v>0.03364542398168541</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04406161913531073</v>
+        <v>0.04370903716548295</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3315976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3300131</v>
+        <v>3300939</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3327900</v>
+        <v>3328489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9847634504722251</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9800577881231896</v>
+        <v>0.9802976465014349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9883046124118822</v>
+        <v>0.9884793129875853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3137</v>
@@ -4354,19 +4354,19 @@
         <v>3311282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3278683</v>
+        <v>3277448</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3342535</v>
+        <v>3338153</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9388933996815406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9296501305922251</v>
+        <v>0.9293001264314105</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9477550643750193</v>
+        <v>0.9465125088419039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6293</v>
@@ -4375,19 +4375,19 @@
         <v>6627259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6590311</v>
+        <v>6592742</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6660411</v>
+        <v>6662121</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9612977710712884</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9559383808646895</v>
+        <v>0.956290962834517</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9661066144202712</v>
+        <v>0.9663545760183145</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>26890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18462</v>
+        <v>17996</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37831</v>
+        <v>38992</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05401054451790701</v>
+        <v>0.05401054451790702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03708278781898194</v>
+        <v>0.03614604406014224</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07598548761502602</v>
+        <v>0.07831773978862717</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>131</v>
@@ -4740,19 +4740,19 @@
         <v>83786</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69052</v>
+        <v>70466</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99061</v>
+        <v>98295</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1343624401913943</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1107346772826891</v>
+        <v>0.1130017843395572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1588591202791816</v>
+        <v>0.1576303498898168</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>159</v>
@@ -4761,19 +4761,19 @@
         <v>110676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92390</v>
+        <v>95542</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127533</v>
+        <v>131130</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09869001962149927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08238407838443368</v>
+        <v>0.08519509376208788</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.113721377643769</v>
+        <v>0.1169291710495587</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>470981</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>460040</v>
+        <v>458879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>479409</v>
+        <v>479875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.945989455482093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9240145123849739</v>
+        <v>0.9216822602113733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9629172121810178</v>
+        <v>0.9638539559398576</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>730</v>
@@ -4811,19 +4811,19 @@
         <v>539794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>524519</v>
+        <v>525285</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>554528</v>
+        <v>553114</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8656375598086056</v>
+        <v>0.8656375598086054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8411408797208185</v>
+        <v>0.8423696501101833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8892653227173111</v>
+        <v>0.8869982156604426</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1156</v>
@@ -4832,19 +4832,19 @@
         <v>1010775</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>993918</v>
+        <v>990321</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1029061</v>
+        <v>1025909</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9013099803785005</v>
+        <v>0.9013099803785006</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8862786223562314</v>
+        <v>0.8830708289504412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9176159216155666</v>
+        <v>0.9148049062379121</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>34933</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25158</v>
+        <v>25334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46755</v>
+        <v>47235</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03638369715255077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02620213685394473</v>
+        <v>0.02638542833235349</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04869576416989656</v>
+        <v>0.04919629293915868</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>187</v>
@@ -4957,19 +4957,19 @@
         <v>109723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93148</v>
+        <v>95527</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125881</v>
+        <v>126636</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09845331936230362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08358097436810848</v>
+        <v>0.08571600332689391</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.112951847766651</v>
+        <v>0.1136292828177304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>232</v>
@@ -4978,19 +4978,19 @@
         <v>144656</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125899</v>
+        <v>126674</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164640</v>
+        <v>166534</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06972714703809918</v>
+        <v>0.06972714703809919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06068606179809408</v>
+        <v>0.06105938148097273</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07935973064710107</v>
+        <v>0.08027287901791118</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>925204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>913382</v>
+        <v>912902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>934979</v>
+        <v>934803</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9636163028474493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9513042358301036</v>
+        <v>0.9508037070608414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9737978631460554</v>
+        <v>0.9736145716676464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1418</v>
@@ -5028,19 +5028,19 @@
         <v>1004740</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>988582</v>
+        <v>987827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1021315</v>
+        <v>1018936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9015466806376964</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.887048152233349</v>
+        <v>0.8863707171822696</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9164190256318914</v>
+        <v>0.914283996673106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2283</v>
@@ -5049,19 +5049,19 @@
         <v>1929944</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1909960</v>
+        <v>1908066</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1948701</v>
+        <v>1947926</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9302728529619008</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9206402693528976</v>
+        <v>0.9197271209820889</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9393139382019058</v>
+        <v>0.9389406185190273</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>28952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20557</v>
+        <v>20088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42060</v>
+        <v>41570</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02766572707468401</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01964382498853846</v>
+        <v>0.01919550497853979</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04019169500164088</v>
+        <v>0.03972332686387502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -5174,19 +5174,19 @@
         <v>95435</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82305</v>
+        <v>81415</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111469</v>
+        <v>111403</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09115164013791895</v>
+        <v>0.09115164013791893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07861115654608676</v>
+        <v>0.07776087568355068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1064664463878609</v>
+        <v>0.1064027728986988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>194</v>
@@ -5195,19 +5195,19 @@
         <v>124387</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105735</v>
+        <v>105588</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143938</v>
+        <v>141635</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05941643597177338</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05050698337821131</v>
+        <v>0.05043707054347228</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06875575067746889</v>
+        <v>0.06765570997742863</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1017527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1004419</v>
+        <v>1004909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1025922</v>
+        <v>1026391</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.972334272925316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9598083049983589</v>
+        <v>0.960276673136125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9803561750114616</v>
+        <v>0.9808044950214603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1355</v>
@@ -5245,19 +5245,19 @@
         <v>951556</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>935522</v>
+        <v>935588</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>964686</v>
+        <v>965576</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9088483598620811</v>
+        <v>0.908848359862081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.893533553612139</v>
+        <v>0.8935972271013012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9213888434539134</v>
+        <v>0.9222391243164494</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2350</v>
@@ -5266,19 +5266,19 @@
         <v>1969083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1949532</v>
+        <v>1951835</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1987735</v>
+        <v>1987882</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9405835640282266</v>
+        <v>0.9405835640282265</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.931244249322531</v>
+        <v>0.9323442900225712</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9494930166217885</v>
+        <v>0.9495629294565276</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>43008</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31084</v>
+        <v>32220</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55742</v>
+        <v>56273</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04406885605963885</v>
+        <v>0.04406885605963884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03185026376241276</v>
+        <v>0.03301514416091925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05711644467589277</v>
+        <v>0.05766112369344764</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -5391,19 +5391,19 @@
         <v>111806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98526</v>
+        <v>97045</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>131639</v>
+        <v>128795</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1231007354555076</v>
+        <v>0.1231007354555077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1084793734591852</v>
+        <v>0.1068476739262165</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1449364688287971</v>
+        <v>0.1418059216308899</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -5412,19 +5412,19 @@
         <v>154814</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137160</v>
+        <v>134170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176951</v>
+        <v>175314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08216540988198265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07279534340388659</v>
+        <v>0.07120884312054385</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09391390841326824</v>
+        <v>0.0930453663835341</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>932921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920187</v>
+        <v>919656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>944845</v>
+        <v>943709</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.955931143940361</v>
+        <v>0.9559311439403613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9428835553241073</v>
+        <v>0.9423388763065523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9681497362375873</v>
+        <v>0.9669848558390807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1127</v>
@@ -5462,19 +5462,19 @@
         <v>796445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>776612</v>
+        <v>779456</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>809725</v>
+        <v>811206</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8768992645444925</v>
+        <v>0.8768992645444924</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8550635311712029</v>
+        <v>0.8581940783691101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.891520626540815</v>
+        <v>0.8931523260737836</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2024</v>
@@ -5483,19 +5483,19 @@
         <v>1729366</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1707229</v>
+        <v>1708866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1747020</v>
+        <v>1750010</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9178345901180175</v>
+        <v>0.9178345901180174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9060860915867318</v>
+        <v>0.9069546336164656</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9272046565961135</v>
+        <v>0.9287911568794559</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>133783</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111962</v>
+        <v>112477</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>156961</v>
+        <v>156342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03843888049842505</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03216903297885212</v>
+        <v>0.03231715598657071</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04509832330271937</v>
+        <v>0.04492053575869322</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>671</v>
@@ -5608,19 +5608,19 @@
         <v>400750</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>369623</v>
+        <v>370089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>434896</v>
+        <v>432531</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1085076378603086</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1000797620123717</v>
+        <v>0.1002058398306181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1177531263190737</v>
+        <v>0.1171127501388184</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>828</v>
@@ -5629,19 +5629,19 @@
         <v>534533</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>497824</v>
+        <v>496363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>574720</v>
+        <v>571714</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07451285171804251</v>
+        <v>0.07451285171804252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06939574459649073</v>
+        <v>0.06919205537905919</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08011488256037559</v>
+        <v>0.07969586104176261</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3346633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3323455</v>
+        <v>3324074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3368454</v>
+        <v>3367939</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.961561119501575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9549016766972807</v>
+        <v>0.9550794642413067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9678309670211479</v>
+        <v>0.9676828440134293</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4630</v>
@@ -5679,19 +5679,19 @@
         <v>3292535</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3258389</v>
+        <v>3260754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3323662</v>
+        <v>3323196</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8914923621396913</v>
+        <v>0.8914923621396914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.882246873680926</v>
+        <v>0.8828872498611815</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8999202379876284</v>
+        <v>0.8997941601693817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7813</v>
@@ -5700,19 +5700,19 @@
         <v>6639168</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6598981</v>
+        <v>6601987</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6675877</v>
+        <v>6677338</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9254871482819573</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9198851174396244</v>
+        <v>0.9203041389582376</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9306042554035089</v>
+        <v>0.9308079446209411</v>
       </c>
     </row>
     <row r="18">
